--- a/data/stats/Darius Garland.xlsx
+++ b/data/stats/Darius Garland.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,6 +1200,56 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>vs Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>18 nov. 2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>G
+128-114</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>25</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>5-11</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2-5</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>43.8%</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
